--- a/biology/Histoire de la zoologie et de la botanique/Johann_Lukas_Schönlein/Johann_Lukas_Schönlein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Lukas_Schönlein/Johann_Lukas_Schönlein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Lukas_Sch%C3%B6nlein</t>
+          <t>Johann_Lukas_Schönlein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Lukas Schönlein (né à Bamberg, principauté épiscopale de Bamberg, le 30 novembre 1793, décédé le 23 janvier 1864 dans la même ville) est un médecin universitaire bavarois, et naturaliste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Lukas_Sch%C3%B6nlein</t>
+          <t>Johann_Lukas_Schönlein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études médicales à Landshut, Iéna, Göttingen et Wurtzbourg où il reçut son habilitation en 1817 et où il commença sa carrière d'enseignant. À partir de  1833, il fut professeur à Zurich (où il fut le maître de Wilhelm Griesinger), avant de devenir, en 1839, titulaire de la chaire de thérapeutique et de pathologie à Berlin, où il eut comme élèves Rudolf Virchow et Theodor Billroth. Il fut aussi le médecin de Frédéric-Guillaume IV de Prusse.
 Schönlein réforma et modernisa de manière fondamentale la médecine allemande en introduisant les méthodes des Sciences Naturelles dans le diagnostic. C'est lui qui, en 1839 donna son nom définitif à la tuberculose en faisant de cette affection jusqu'alors multiforme, une entité clinique unifiée. Il fut l’un des premiers professeurs de médecine allemands à donner ses cours dans sa langue maternelle au lieu du latin. Schönlein décrivit le purpura rhumatoïde (ou maladie de Schönlein) une variété de purpura allergique non thrombopénique encore connu aujourd’hui sous le nom éponymique de purpura de Henoch-Schönlein.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Lukas_Sch%C3%B6nlein</t>
+          <t>Johann_Lukas_Schönlein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Arnholdt, Johann Lukas Schönlein als Tuberkulosearzt, In: Bayerisches Ärzteblatt (de) 1978, S. 702-707
 Johanna Bleker: Johann Lukas Schönlein. Dans: Wilhelm Treue, Rolf Winau (de) (dir.), Berlinische Lebensbilder II. Mediziner. Colloquium-Verlag, Berlin 1987, p. 51–69.
